--- a/VersionRecords/Version 5.2.0.6_beta 20161209/版本Bug和特性计划及评审表v5.2.0.6_捷豹组.xlsx
+++ b/VersionRecords/Version 5.2.0.6_beta 20161209/版本Bug和特性计划及评审表v5.2.0.6_捷豹组.xlsx
@@ -1548,7 +1548,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
